--- a/FittsLaw.xlsx
+++ b/FittsLaw.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mnscu-my.sharepoint.com/personal/xl9045qi_minnstate_edu/Documents/Teaching/S24-CS470/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xl9045qi\source\repos\cs470-s25\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{66F7FC6E-FC2D-4DBB-9CA6-4CADE6A8CCC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{002E7665-C5FB-499E-B91C-E7D767887AB2}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49689157-6B4B-441D-B7A3-0725780DE532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10276" xr2:uid="{84AA44B2-DCEF-4921-9E1B-32C4B7CE4A88}"/>
+    <workbookView xWindow="9290" yWindow="1490" windowWidth="15350" windowHeight="9970" xr2:uid="{84AA44B2-DCEF-4921-9E1B-32C4B7CE4A88}"/>
   </bookViews>
   <sheets>
     <sheet name="Fitts' Law Calculation" sheetId="1" r:id="rId1"/>
@@ -407,27 +407,27 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'Fitts'' Law Calculation'!$C$2:$C$17</c:f>
+              <c:f>'Fitts'' Law Calculation'!$C$2:$C$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>2</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>3</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>4</c:v>
@@ -436,85 +436,43 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="11">
                   <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Fitts'' Law Calculation'!$D$2:$D$17</c:f>
+              <c:f>'Fitts'' Law Calculation'!$D$2:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>254</c:v>
+                  <c:v>353</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>353</c:v>
+                  <c:v>481</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>481</c:v>
+                  <c:v>649</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>649</c:v>
+                  <c:v>472</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>344</c:v>
+                  <c:v>603</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>472</c:v>
+                  <c:v>778</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>603</c:v>
+                  <c:v>605</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>778</c:v>
+                  <c:v>763</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>501</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>605</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>763</c:v>
-                </c:pt>
-                <c:pt idx="11">
                   <c:v>921</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>694</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>804</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>963</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1137</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1645,12 +1603,12 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1667,309 +1625,188 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>8</v>
       </c>
       <c r="B2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C2">
         <f>CEILING(LOG((A2/B2+1),2),1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>254</v>
+        <v>353</v>
       </c>
       <c r="E2" s="1">
         <f>C2/(D2/1000)</f>
-        <v>3.9370078740157481</v>
+        <v>5.6657223796034</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>8</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C17" si="0">CEILING(LOG((A3/B3+1),2),1)</f>
-        <v>2</v>
+        <f>CEILING(LOG((A3/B3+1),2),1)</f>
+        <v>3</v>
       </c>
       <c r="D3">
-        <v>353</v>
+        <v>481</v>
       </c>
       <c r="E3" s="1">
-        <f t="shared" ref="E3:E17" si="1">C3/(D3/1000)</f>
-        <v>5.6657223796034</v>
+        <f>C3/(D3/1000)</f>
+        <v>6.2370062370062369</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>8</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <f t="shared" si="0"/>
+        <f>CEILING(LOG((A4/B4+1),2),1)</f>
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>649</v>
+      </c>
+      <c r="E4" s="1">
+        <f>C4/(D4/1000)</f>
+        <v>6.1633281972265017</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>16</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <f>CEILING(LOG((A5/B5+1),2),1)</f>
         <v>3</v>
       </c>
-      <c r="D4">
-        <v>481</v>
-      </c>
-      <c r="E4" s="1">
-        <f t="shared" si="1"/>
-        <v>6.2370062370062369</v>
+      <c r="D5">
+        <v>472</v>
+      </c>
+      <c r="E5" s="1">
+        <f>C5/(D5/1000)</f>
+        <v>6.3559322033898304</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A5">
-        <v>8</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="D5">
-        <v>649</v>
-      </c>
-      <c r="E5" s="1">
-        <f t="shared" si="1"/>
-        <v>6.1633281972265017</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>16</v>
       </c>
       <c r="B6">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f>CEILING(LOG((A6/B6+1),2),1)</f>
+        <v>4</v>
       </c>
       <c r="D6">
-        <v>344</v>
+        <v>603</v>
       </c>
       <c r="E6" s="1">
-        <f t="shared" si="1"/>
-        <v>5.8139534883720936</v>
+        <f>C6/(D6/1000)</f>
+        <v>6.6334991708126037</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>16</v>
       </c>
       <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <f>CEILING(LOG((A7/B7+1),2),1)</f>
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>778</v>
+      </c>
+      <c r="E7" s="1">
+        <f>C7/(D7/1000)</f>
+        <v>6.4267352185089974</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>32</v>
+      </c>
+      <c r="B8">
         <v>4</v>
       </c>
-      <c r="C7">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="D7">
-        <v>472</v>
-      </c>
-      <c r="E7" s="1">
-        <f t="shared" si="1"/>
-        <v>6.3559322033898304</v>
+      <c r="C8">
+        <f>CEILING(LOG((A8/B8+1),2),1)</f>
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>605</v>
+      </c>
+      <c r="E8" s="1">
+        <f>C8/(D8/1000)</f>
+        <v>6.6115702479338845</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A8">
-        <v>16</v>
-      </c>
-      <c r="B8">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>32</v>
+      </c>
+      <c r="B9">
         <v>2</v>
       </c>
-      <c r="C8">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="D8">
-        <v>603</v>
-      </c>
-      <c r="E8" s="1">
-        <f t="shared" si="1"/>
-        <v>6.6334991708126037</v>
+      <c r="C9">
+        <f>CEILING(LOG((A9/B9+1),2),1)</f>
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>763</v>
+      </c>
+      <c r="E9" s="1">
+        <f>C9/(D9/1000)</f>
+        <v>6.5530799475753607</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A9">
-        <v>16</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="D9">
-        <v>778</v>
-      </c>
-      <c r="E9" s="1">
-        <f t="shared" si="1"/>
-        <v>6.4267352185089974</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>32</v>
       </c>
       <c r="B10">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f>CEILING(LOG((A10/B10+1),2),1)</f>
+        <v>6</v>
       </c>
       <c r="D10">
-        <v>501</v>
+        <v>921</v>
       </c>
       <c r="E10" s="1">
-        <f t="shared" si="1"/>
-        <v>5.9880239520958085</v>
+        <f>C10/(D10/1000)</f>
+        <v>6.5146579804560254</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A11">
-        <v>32</v>
-      </c>
-      <c r="B11">
-        <v>4</v>
-      </c>
-      <c r="C11">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="D11">
-        <v>605</v>
-      </c>
-      <c r="E11" s="1">
-        <f t="shared" si="1"/>
-        <v>6.6115702479338845</v>
-      </c>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E14" s="1"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A12">
-        <v>32</v>
-      </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
-      <c r="C12">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="D12">
-        <v>763</v>
-      </c>
-      <c r="E12" s="1">
-        <f t="shared" si="1"/>
-        <v>6.5530799475753607</v>
-      </c>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E15" s="1"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A13">
-        <v>32</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="D13">
-        <v>921</v>
-      </c>
-      <c r="E13" s="1">
-        <f t="shared" si="1"/>
-        <v>6.5146579804560254</v>
-      </c>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E16" s="1"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A14">
-        <v>64</v>
-      </c>
-      <c r="B14">
-        <v>8</v>
-      </c>
-      <c r="C14">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="D14">
-        <v>694</v>
-      </c>
-      <c r="E14" s="1">
-        <f t="shared" si="1"/>
-        <v>5.7636887608069172</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A15">
-        <v>64</v>
-      </c>
-      <c r="B15">
-        <v>4</v>
-      </c>
-      <c r="C15">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="D15">
-        <v>804</v>
-      </c>
-      <c r="E15" s="1">
-        <f t="shared" si="1"/>
-        <v>6.2189054726368154</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A16">
-        <v>64</v>
-      </c>
-      <c r="B16">
-        <v>2</v>
-      </c>
-      <c r="C16">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="D16">
-        <v>963</v>
-      </c>
-      <c r="E16" s="1">
-        <f t="shared" si="1"/>
-        <v>6.2305295950155761</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A17">
-        <v>64</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="D17">
-        <v>1137</v>
-      </c>
-      <c r="E17" s="1">
-        <f t="shared" si="1"/>
-        <v>6.1565523306948107</v>
-      </c>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E17" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1988,15 +1825,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CC058348B13C6E45AC0C311B5B5A24FA" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="424abd0e3517d4d9ff50fe0be816ffa8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="3500b4f6-0294-4b07-b3ca-f6ad618e8b1b" xmlns:ns4="0dcdbe35-4f57-4c4d-8cda-1ae37df8cd4e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="eb6508be6051209e9db6b6c441c16dd3" ns3:_="" ns4:_="">
     <xsd:import namespace="3500b4f6-0294-4b07-b3ca-f6ad618e8b1b"/>
@@ -2235,6 +2063,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B62F478-FF96-412A-B5EC-6C81507D3E14}">
   <ds:schemaRefs>
@@ -2253,14 +2090,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{995E0692-C8BD-4D53-A353-6C2AD6805E4B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{858468F2-9F63-4543-A967-68A9D175EACC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2277,4 +2106,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{995E0692-C8BD-4D53-A353-6C2AD6805E4B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>